--- a/DATA_goal/Junction_Flooding_99.xlsx
+++ b/DATA_goal/Junction_Flooding_99.xlsx
@@ -450,7 +450,7 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
@@ -465,7 +465,7 @@
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -655,103 +655,103 @@
         <v>41531.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.08</v>
+        <v>2.01</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.58</v>
+        <v>1.36</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.07</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>42.56</v>
+        <v>4.26</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>34.5</v>
+        <v>3.45</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.8</v>
+        <v>1.58</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>50.7</v>
+        <v>5.07</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>24.32</v>
+        <v>2.43</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.51</v>
+        <v>1.55</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.79</v>
+        <v>1.68</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.51</v>
+        <v>1.75</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.72</v>
+        <v>1.57</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.98</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.35</v>
+        <v>1.34</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>231.85</v>
+        <v>23.19</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>43.71</v>
+        <v>4.37</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>28.93</v>
+        <v>2.89</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>25.44</v>
+        <v>2.54</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.6</v>
+        <v>1.16</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.59</v>
+        <v>1.36</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.25</v>
+        <v>1.73</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>44.95</v>
+        <v>4.49</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.14</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41531.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.36</v>
+        <v>0.54</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>17.23</v>
+        <v>1.72</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>13.79</v>
+        <v>1.38</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.35</v>
+        <v>0.64</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>27.57</v>
+        <v>2.76</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>88.84</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>17.84</v>
+        <v>1.78</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>11.65</v>
+        <v>1.16</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.9</v>
+        <v>1.29</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.15</v>
+        <v>0.51</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>25.3</v>
+        <v>2.53</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.16</v>
+        <v>0.32</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41531.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.92</v>
+        <v>1.39</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.05</v>
+        <v>0.3</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.85</v>
+        <v>0.38</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.62</v>
+        <v>0.26</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>35.05</v>
+        <v>3.5</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>7.96</v>
+        <v>0.8</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.57</v>
+        <v>0.26</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.64</v>
+        <v>0.26</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.05</v>
+        <v>0.31</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.21</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41531.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.27</v>
+        <v>2.03</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>44</v>
+        <v>4.4</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>36.08</v>
+        <v>3.61</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.95</v>
+        <v>1.6</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>57.12</v>
+        <v>5.71</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.55</v>
+        <v>2.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.12</v>
+        <v>1.61</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.68</v>
+        <v>1.77</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.59</v>
+        <v>1.86</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.87</v>
+        <v>1.59</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.53</v>
+        <v>2.25</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.4</v>
+        <v>1.34</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>234.16</v>
+        <v>23.42</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>44.24</v>
+        <v>4.42</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.64</v>
+        <v>1.46</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>29.72</v>
+        <v>2.97</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.65</v>
+        <v>1.56</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.35</v>
+        <v>2.83</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.51</v>
+        <v>1.35</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.48</v>
+        <v>1.85</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>51.59</v>
+        <v>5.16</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.31</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41531.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>20.18</v>
+        <v>2.02</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>43.82</v>
+        <v>4.38</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>35.97</v>
+        <v>3.6</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>61.78</v>
+        <v>6.18</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>24.43</v>
+        <v>2.44</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>16.1</v>
+        <v>1.61</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>17.61</v>
+        <v>1.76</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>18.54</v>
+        <v>1.85</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>22.48</v>
+        <v>2.25</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>13.3</v>
+        <v>1.33</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>233.04</v>
+        <v>23.3</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>44.18</v>
+        <v>4.42</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>29.71</v>
+        <v>2.97</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>15.61</v>
+        <v>1.56</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.31</v>
+        <v>0.23</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>30.01</v>
+        <v>3</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>13.42</v>
+        <v>1.34</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>18.43</v>
+        <v>1.84</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>56.14</v>
+        <v>5.61</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>18.22</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41531.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>13.64</v>
+        <v>1.36</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>10.02</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>29.63</v>
+        <v>2.96</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>24.27</v>
+        <v>2.43</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>43.89</v>
+        <v>4.39</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.33</v>
+        <v>0.73</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>10.83</v>
+        <v>1.08</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>12.53</v>
+        <v>1.25</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>10.68</v>
+        <v>1.07</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>155.21</v>
+        <v>15.52</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>29.93</v>
+        <v>2.99</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>20.09</v>
+        <v>2.01</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>10.54</v>
+        <v>1.05</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>20.94</v>
+        <v>2.09</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>7.74</v>
+        <v>0.77</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>9.09</v>
+        <v>0.91</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>12.46</v>
+        <v>1.25</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>39.9</v>
+        <v>3.99</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41531.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>20.56</v>
+        <v>2.06</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>44.69</v>
+        <v>4.47</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>36.74</v>
+        <v>3.67</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>16.18</v>
+        <v>1.62</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>61.87</v>
+        <v>6.19</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>24.9</v>
+        <v>2.49</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>16.48</v>
+        <v>1.65</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>17.95</v>
+        <v>1.8</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>18.93</v>
+        <v>1.89</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>16.09</v>
+        <v>1.61</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>22.93</v>
+        <v>2.29</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>237.61</v>
+        <v>23.76</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>44.98</v>
+        <v>4.5</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>14.85</v>
+        <v>1.49</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>30.31</v>
+        <v>3.03</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>15.93</v>
+        <v>1.59</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>30.18</v>
+        <v>3.02</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>11.6</v>
+        <v>1.16</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>13.64</v>
+        <v>1.36</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>18.82</v>
+        <v>1.88</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>56.08</v>
+        <v>5.61</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>18.57</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41531.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>33.41</v>
+        <v>3.34</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>27.44</v>
+        <v>2.74</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>12.1</v>
+        <v>1.21</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>48.69</v>
+        <v>4.87</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>18.62</v>
+        <v>1.86</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>12.29</v>
+        <v>1.23</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>13.42</v>
+        <v>1.34</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>14.15</v>
+        <v>1.42</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>17.15</v>
+        <v>1.71</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>10.11</v>
+        <v>1.01</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>175.81</v>
+        <v>17.58</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>33.7</v>
+        <v>3.37</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>22.69</v>
+        <v>2.27</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>23.39</v>
+        <v>2.34</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>10.21</v>
+        <v>1.02</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>14.07</v>
+        <v>1.41</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>44.25</v>
+        <v>4.43</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41531.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>21.14</v>
+        <v>2.11</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>15.73</v>
+        <v>1.57</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>45.96</v>
+        <v>4.6</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>37.83</v>
+        <v>3.78</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>16.64</v>
+        <v>1.66</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>63.98</v>
+        <v>6.4</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>25.6</v>
+        <v>2.56</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>16.99</v>
+        <v>1.7</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>18.46</v>
+        <v>1.85</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>19.48</v>
+        <v>1.95</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>23.6</v>
+        <v>2.36</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>244.48</v>
+        <v>24.45</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>46.25</v>
+        <v>4.62</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>31.21</v>
+        <v>3.12</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>16.39</v>
+        <v>1.64</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.31</v>
+        <v>0.23</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>31.19</v>
+        <v>3.12</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>19.37</v>
+        <v>1.94</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>58.02</v>
+        <v>5.8</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.65</v>
+        <v>0.86</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>19.09</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_99.xlsx
+++ b/DATA_goal/Junction_Flooding_99.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41531.34027777778</v>
+        <v>44782.67361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.01</v>
+        <v>0.59</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.36</v>
+        <v>0.19</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>0.14</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.26</v>
+        <v>0.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.45</v>
+        <v>0.37</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.58</v>
+        <v>0.1</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.07</v>
+        <v>0.63</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.43</v>
+        <v>0.22</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.02</v>
+        <v>0.08</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.55</v>
+        <v>0.12</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.68</v>
+        <v>0.24</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.75</v>
+        <v>0.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.5</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.57</v>
+        <v>0.09</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.2</v>
+        <v>0.25</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.34</v>
+        <v>0.15</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.13</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>23.19</v>
+        <v>2.58</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.37</v>
+        <v>0.55</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.45</v>
+        <v>0.33</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.89</v>
+        <v>0.39</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.49</v>
+        <v>0.28</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>0.02</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.54</v>
+        <v>0.15</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.28</v>
+        <v>0.16</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.16</v>
+        <v>0.06</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.36</v>
+        <v>0.2</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.73</v>
+        <v>0.3</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.02</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.49</v>
+        <v>0.25</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41531.34722222222</v>
+        <v>44782.68055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.44</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.72</v>
+        <v>1.32</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.38</v>
+        <v>0.99</v>
       </c>
       <c r="G3" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I3" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.98</v>
-      </c>
       <c r="J3" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K3" s="4" t="n">
         <v>0.41</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>0.6</v>
-      </c>
       <c r="L3" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z3" s="4" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.29</v>
-      </c>
       <c r="AA3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="AB3" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AH3" s="4" t="n">
         <v>0.48</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>0.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41531.35416666666</v>
+        <v>44782.6875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.36</v>
+        <v>1.04</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.73</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.76</v>
+        <v>2.14</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.59</v>
+        <v>1.7</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.71</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.39</v>
+        <v>2.73</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.43</v>
+        <v>1.13</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.49</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.74</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.84</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.96</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.7</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.38</v>
+        <v>1.07</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.62</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.5</v>
+        <v>10.68</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.8</v>
+        <v>2.09</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.72</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.51</v>
+        <v>1.43</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.77</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.62</v>
+        <v>1.33</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.61</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.64</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.9</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.28</v>
+        <v>2.39</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.37</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41531.36111111111</v>
+        <v>44782.69444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.03</v>
+        <v>1.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.49</v>
+        <v>0.8</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.4</v>
+        <v>2.33</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.61</v>
+        <v>1.88</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.71</v>
+        <v>3.22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.45</v>
+        <v>1.26</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.09</v>
+        <v>0.55</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.61</v>
+        <v>0.83</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.77</v>
+        <v>0.92</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.86</v>
+        <v>1.03</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.27</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.59</v>
+        <v>0.79</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.25</v>
+        <v>1.18</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.34</v>
+        <v>0.68</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>23.42</v>
+        <v>11.84</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.42</v>
+        <v>2.31</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.46</v>
+        <v>0.78</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.97</v>
+        <v>1.58</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.56</v>
+        <v>0.84</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.83</v>
+        <v>1.55</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.29</v>
+        <v>0.67</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.15</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.35</v>
+        <v>0.71</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.85</v>
+        <v>0.98</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.16</v>
+        <v>2.86</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.83</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41531.36805555555</v>
+        <v>44782.70137731481</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.02</v>
+        <v>9.56</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.49</v>
+        <v>6.94</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.11</v>
+        <v>0.48</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.38</v>
+        <v>20.13</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.6</v>
+        <v>16.27</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.59</v>
+        <v>6.92</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6.18</v>
+        <v>28.97</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.44</v>
+        <v>10.87</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.09</v>
+        <v>4.77</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.61</v>
+        <v>7.18</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.76</v>
+        <v>7.97</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.85</v>
+        <v>8.85</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.51</v>
+        <v>2.29</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.58</v>
+        <v>6.8</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.25</v>
+        <v>10.21</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.33</v>
+        <v>5.89</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>23.3</v>
+        <v>101.26</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.42</v>
+        <v>20</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.46</v>
+        <v>6.74</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.97</v>
+        <v>13.67</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.56</v>
+        <v>7.23</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.23</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3</v>
+        <v>13.76</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.29</v>
+        <v>5.82</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.14</v>
+        <v>4.89</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.34</v>
+        <v>6.09</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.84</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.61</v>
+        <v>25.87</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.82</v>
+        <v>3.63</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41531.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>15.52</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41531.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>23.76</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41531.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41531.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>24.45</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41531.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>14.88</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>43.46</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>35.77</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>15.73</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>61.88</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>15.64</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>22.32</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>230.75</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>43.76</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>29.53</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>29.97</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>18.32</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>56.19</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>18.05</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_99.xlsx
+++ b/DATA_goal/Junction_Flooding_99.xlsx
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -454,7 +454,7 @@
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -462,7 +462,7 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
@@ -655,103 +655,103 @@
         <v>44782.67361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.58</v>
+        <v>25.8</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.68055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.24</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.88</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.47</v>
+        <v>14.67</v>
       </c>
       <c r="I3" s="4" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>6.09</v>
+        <v>60.89</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.4</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.78</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.86</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.67</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.92</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.85</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.6875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.36</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.14</v>
+        <v>21.36</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.13</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.73</v>
+        <v>27.31</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.3</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.42</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.6</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.41</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.69</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.68</v>
+        <v>106.85</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.93</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.35</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.68</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.27</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.9</v>
+        <v>8.98</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.39</v>
+        <v>23.95</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.69444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.33</v>
+        <v>23.33</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.81</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.99</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.22</v>
+        <v>32.15</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.56</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.29</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.85</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.81</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>11.84</v>
+        <v>118.38</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.31</v>
+        <v>23.11</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.46</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.86</v>
+        <v>28.62</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.2</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_99.xlsx
+++ b/DATA_goal/Junction_Flooding_99.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44782.67361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.94</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.36</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.77</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.74</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.28</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.17</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.22</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.36</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.49</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.256</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.8</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.51</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.3</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.94</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.8</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.63</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.05</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.03</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.55</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.83</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
@@ -759,37 +759,37 @@
         <v>44782.68055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.97</v>
+        <v>6.966</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.4</v>
+        <v>4.404</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.24</v>
+        <v>13.243</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>9.882</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.88</v>
+        <v>3.884</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>14.67</v>
+        <v>14.675</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>6.43</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.69</v>
+        <v>2.694</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.12</v>
+        <v>4.123</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.02</v>
+        <v>5.016</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>6.48</v>
@@ -798,64 +798,64 @@
         <v>1.44</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.74</v>
+        <v>3.744</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.29</v>
+        <v>6.288</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.62</v>
+        <v>3.618</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.64</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>60.89</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>12.4</v>
+        <v>12.403</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.6</v>
+        <v>4.602</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>8.622</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.78</v>
+        <v>4.783</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.582</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.86</v>
+        <v>6.864</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.64</v>
+        <v>3.643</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.67</v>
+        <v>2.674</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>3.92</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.52</v>
+        <v>5.522</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.85</v>
+        <v>11.852</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.07</v>
+        <v>2.068</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.85</v>
+        <v>4.848</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.6875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.36</v>
+        <v>10.357</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.31</v>
+        <v>7.314</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.636</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>21.36</v>
+        <v>21.361</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17</v>
+        <v>16.998</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.13</v>
+        <v>7.126</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>27.31</v>
+        <v>27.313</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.3</v>
+        <v>11.298</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.91</v>
+        <v>4.911</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.42</v>
+        <v>7.424</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>8.382</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.6</v>
+        <v>9.603</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.41</v>
+        <v>2.411</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.98</v>
+        <v>6.978</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.69</v>
+        <v>10.685</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.17</v>
+        <v>6.168</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.159</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>106.85</v>
+        <v>106.849</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>20.93</v>
+        <v>20.926</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.2</v>
+        <v>7.205</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.35</v>
+        <v>14.346</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>7.68</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.982</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.27</v>
+        <v>13.268</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.12</v>
+        <v>6.116</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5</v>
+        <v>5.005</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.43</v>
+        <v>6.433</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.98</v>
+        <v>8.975</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.95</v>
+        <v>23.946</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.75</v>
+        <v>3.749</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.44</v>
+        <v>8.445</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>9.369999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.70137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.26</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.87</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_99.xlsx
+++ b/DATA_goal/Junction_Flooding_99.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
@@ -967,103 +967,207 @@
         <v>44782.69444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.11</v>
+        <v>11.113</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>8.031000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.576</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.33</v>
+        <v>23.333</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>18.81</v>
+        <v>18.812</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>7.99</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>32.15</v>
+        <v>32.152</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>12.56</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.51</v>
+        <v>5.507</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>8.295</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>9.224</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.29</v>
+        <v>10.294</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.66</v>
+        <v>2.655</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>7.85</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.8</v>
+        <v>11.802</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.81</v>
+        <v>6.814</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.392</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>118.38</v>
+        <v>118.379</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>23.11</v>
+        <v>23.108</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.82</v>
+        <v>7.824</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>15.79</v>
+        <v>15.793</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>8.382999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.08</v>
+        <v>1.082</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.46</v>
+        <v>15.456</v>
       </c>
       <c r="AA5" s="4" t="n">
+        <v>6.736</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>5.637</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>7.052</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>9.816000000000001</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>28.624</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>4.196</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>9.372999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.70137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>101.26</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="V6" s="4" t="n">
         <v>6.74</v>
       </c>
-      <c r="AB5" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>28.62</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>9.369999999999999</v>
+      <c r="W6" s="4" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_99.xlsx
+++ b/DATA_goal/Junction_Flooding_99.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
@@ -967,207 +967,103 @@
         <v>44782.69444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.113</v>
+        <v>11.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.031000000000001</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.576</v>
+        <v>0.58</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.333</v>
+        <v>23.33</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>18.812</v>
+        <v>18.81</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>7.99</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>32.152</v>
+        <v>32.15</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>12.56</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.507</v>
+        <v>5.51</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.295</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.224</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.294</v>
+        <v>10.29</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.655</v>
+        <v>2.66</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>7.85</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.802</v>
+        <v>11.8</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.814</v>
+        <v>6.81</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.392</v>
+        <v>0.39</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.205</v>
+        <v>0.2</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>118.379</v>
+        <v>118.38</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>23.108</v>
+        <v>23.11</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.824</v>
+        <v>7.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>15.793</v>
+        <v>15.79</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.382999999999999</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.082</v>
+        <v>1.08</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.456</v>
+        <v>15.46</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.736</v>
+        <v>6.74</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.637</v>
+        <v>5.64</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.052</v>
+        <v>7.05</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.816000000000001</v>
+        <v>9.82</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>28.624</v>
+        <v>28.62</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.196</v>
+        <v>4.2</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.372999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.70137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.26</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.87</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
   </sheetData>
